--- a/data_matrix.xlsx
+++ b/data_matrix.xlsx
@@ -175,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -191,12 +191,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -204,6 +198,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -513,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection sqref="A1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -524,28 +527,28 @@
     <col min="1" max="1025" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="2" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
@@ -564,7 +567,7 @@
       <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -580,8 +583,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -602,7 +605,7 @@
       <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="1">
@@ -634,9 +637,21 @@
       <c r="Q3" s="1">
         <v>0.5</v>
       </c>
+      <c r="S3" s="2">
+        <v>0.44000000000000006</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0.44000000000000006</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -657,7 +672,7 @@
       <c r="G4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="1">
@@ -689,9 +704,21 @@
       <c r="Q4" s="1">
         <v>0.47</v>
       </c>
+      <c r="S4" s="2">
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0.35199999999999992</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0.41600000000000004</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0.376</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -712,7 +739,7 @@
       <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="1">
@@ -744,9 +771,21 @@
       <c r="Q5" s="1">
         <v>0.39</v>
       </c>
+      <c r="S5" s="2">
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.30400000000000005</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0.35200000000000004</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0.31200000000000006</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -767,7 +806,7 @@
       <c r="G6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="9" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="1">
@@ -799,9 +838,21 @@
       <c r="Q6" s="1">
         <v>0.24</v>
       </c>
+      <c r="S6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0.11199999999999997</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0.192</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -822,7 +873,7 @@
       <c r="G7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="9" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="1">
@@ -854,9 +905,21 @@
       <c r="Q7" s="1">
         <v>0.23</v>
       </c>
+      <c r="S7" s="2">
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0.11200000000000006</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0.23199999999999998</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0.18400000000000002</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -877,7 +940,7 @@
       <c r="G8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I8" s="1">
@@ -909,9 +972,21 @@
       <c r="Q8" s="1">
         <v>0.41</v>
       </c>
+      <c r="S8" s="2">
+        <v>0.36800000000000005</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0.32800000000000001</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -932,7 +1007,7 @@
       <c r="G9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="9" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="1">
@@ -964,9 +1039,21 @@
       <c r="Q9" s="1">
         <v>0.2</v>
       </c>
+      <c r="S9" s="2">
+        <v>0.15200000000000002</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0.1440000000000001</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0.18400000000000002</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0.16000000000000003</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -987,7 +1074,7 @@
       <c r="G10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I10" s="1">
@@ -1019,8 +1106,20 @@
       <c r="Q10" s="1">
         <v>0.13</v>
       </c>
+      <c r="S10" s="2">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="T10" s="2">
+        <v>8.8000000000000023E-2</v>
+      </c>
+      <c r="U10" s="2">
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0.10400000000000001</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
